--- a/VLABS/Codes/e-shape_vlabs/Parameters.xlsx
+++ b/VLABS/Codes/e-shape_vlabs/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuentesm\CISNE\vlabs\VLABS\Codes\e-shape_vlabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC9C563-6B44-49BD-91C2-F59BC297B7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7100BDA2-98F9-4998-9589-C54F2E0977A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{0F6275AB-50D7-4389-8D3F-0A0664B32F16}"/>
   </bookViews>
@@ -897,20 +897,8 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,6 +916,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1248,15 +1248,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2C081D-A9CC-4C45-81C8-98C0B80B73F2}">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="2" max="2" width="63.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="37.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="37.54296875" customWidth="1"/>
@@ -1264,23 +1264,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1292,13 +1292,13 @@
       <c r="C2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -1307,39 +1307,39 @@
       <c r="H2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
@@ -1399,21 +1399,21 @@
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1777,7 +1777,7 @@
       <c r="A20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -1804,7 +1804,7 @@
       <c r="A21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="12" t="s">
         <v>109</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="A23" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="12" t="s">
         <v>109</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="A24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="12" t="s">
         <v>109</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="A27" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="41" t="s">
         <v>120</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -1985,7 +1985,7 @@
       <c r="A28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="12" t="s">
         <v>109</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="A29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="12" t="s">
         <v>109</v>
       </c>
@@ -2305,21 +2305,21 @@
       <c r="A40" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="37" t="s">
+      <c r="C40" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -2575,21 +2575,21 @@
       <c r="A50" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="37" t="s">
+      <c r="C50" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -2602,21 +2602,21 @@
       <c r="A51" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" s="35" t="b">
+      <c r="C51" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -2629,7 +2629,7 @@
       <c r="A52" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="41" t="s">
         <v>139</v>
       </c>
       <c r="C52" s="12" t="s">
@@ -2656,7 +2656,7 @@
       <c r="A53" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="26"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="12" t="s">
         <v>110</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="A54" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="26"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="12" t="s">
         <v>110</v>
       </c>
@@ -2706,19 +2706,19 @@
       <c r="A55" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="34" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="31">
         <v>2</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="31">
         <v>2</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -2731,19 +2731,19 @@
       <c r="A56" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="36" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="33">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E56" s="37">
+      <c r="E56" s="33">
         <v>0.1</v>
       </c>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -2756,7 +2756,7 @@
       <c r="A57" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="26"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="12" t="s">
         <v>110</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="A58" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="26"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="12" t="s">
         <v>110</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="A59" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="26"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="12" t="s">
         <v>110</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="A60" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="26"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="13" t="s">
         <v>108</v>
       </c>
@@ -2856,19 +2856,19 @@
       <c r="A61" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="36" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D61" s="33">
         <v>50</v>
       </c>
-      <c r="E61" s="37">
+      <c r="E61" s="33">
         <v>50</v>
       </c>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -2881,7 +2881,7 @@
       <c r="A62" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="12" t="s">
         <v>110</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="A63" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="26"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="12" t="s">
         <v>110</v>
       </c>
@@ -2931,19 +2931,19 @@
       <c r="A64" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="34" t="s">
+      <c r="B64" s="41"/>
+      <c r="C64" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="31">
         <v>60</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="31">
         <v>60</v>
       </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -2981,21 +2981,21 @@
       <c r="A66" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="37">
+      <c r="C66" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="33">
         <v>20</v>
       </c>
-      <c r="E66" s="37">
+      <c r="E66" s="33">
         <v>100</v>
       </c>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -3089,21 +3089,21 @@
       <c r="A70" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C70" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="35">
+      <c r="C70" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="31">
         <v>3</v>
       </c>
-      <c r="E70" s="35">
-        <v>1</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
+      <c r="E70" s="31">
+        <v>1</v>
+      </c>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -3116,21 +3116,21 @@
       <c r="A71" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="37">
-        <v>1</v>
-      </c>
-      <c r="E71" s="37">
+      <c r="C71" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="33">
+        <v>1</v>
+      </c>
+      <c r="E71" s="33">
         <v>193</v>
       </c>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -3143,7 +3143,7 @@
       <c r="A72" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="26"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="12" t="s">
         <v>109</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="A73" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="26"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="12" t="s">
         <v>109</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="A74" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="26"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="12" t="s">
         <v>109</v>
       </c>
@@ -3218,7 +3218,7 @@
       <c r="A75" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="26"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="12" t="s">
         <v>109</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="A76" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="12" t="s">
         <v>109</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="A77" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="26"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="12" t="s">
         <v>109</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="A78" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="26"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="12" t="s">
         <v>109</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="A79" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="26"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="12" t="s">
         <v>109</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="A80" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="26"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="12" t="s">
         <v>109</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="A81" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="26"/>
+      <c r="B81" s="41"/>
       <c r="C81" s="12" t="s">
         <v>109</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="A82" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="26"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="12" t="s">
         <v>109</v>
       </c>
@@ -3418,19 +3418,19 @@
       <c r="A83" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="35" t="s">
+      <c r="B83" s="41"/>
+      <c r="C83" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -3443,21 +3443,21 @@
       <c r="A84" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84" s="37">
+      <c r="C84" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" s="33">
         <v>30</v>
       </c>
-      <c r="E84" s="37">
+      <c r="E84" s="33">
         <v>30</v>
       </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -3551,21 +3551,21 @@
       <c r="A88" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="37">
+      <c r="D88" s="33">
         <v>7</v>
       </c>
-      <c r="E88" s="37">
+      <c r="E88" s="33">
         <v>3</v>
       </c>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
@@ -3632,21 +3632,21 @@
       <c r="A91" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C91" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="35" t="s">
+      <c r="C91" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E91" s="35" t="s">
+      <c r="E91" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -3711,21 +3711,21 @@
       <c r="A94" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D94" s="35">
+      <c r="C94" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D94" s="31">
         <v>7</v>
       </c>
-      <c r="E94" s="35">
+      <c r="E94" s="31">
         <v>4</v>
       </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
